--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Nodal-Acvr2a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Nodal-Acvr2a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Nodal</t>
+  </si>
+  <si>
+    <t>Acvr2a</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Nodal</t>
-  </si>
-  <si>
-    <t>Acvr2a</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.937458</v>
+        <v>1.167885</v>
       </c>
       <c r="H2">
-        <v>2.812374</v>
+        <v>3.503655</v>
       </c>
       <c r="I2">
-        <v>0.4048141722543122</v>
+        <v>0.484739710372708</v>
       </c>
       <c r="J2">
-        <v>0.4048141722543122</v>
+        <v>0.484739710372708</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.13024733333333</v>
+        <v>16.28844733333333</v>
       </c>
       <c r="N2">
-        <v>51.390742</v>
+        <v>48.865342</v>
       </c>
       <c r="O2">
-        <v>0.2959211466465043</v>
+        <v>0.2176904746803693</v>
       </c>
       <c r="P2">
-        <v>0.2959211466465043</v>
+        <v>0.2176904746803693</v>
       </c>
       <c r="Q2">
-        <v>16.058887404612</v>
+        <v>19.02303331389</v>
       </c>
       <c r="R2">
-        <v>144.529986641508</v>
+        <v>171.20729982501</v>
       </c>
       <c r="S2">
-        <v>0.1197930740322516</v>
+        <v>0.1055232176474596</v>
       </c>
       <c r="T2">
-        <v>0.1197930740322515</v>
+        <v>0.1055232176474596</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.937458</v>
+        <v>1.167885</v>
       </c>
       <c r="H3">
-        <v>2.812374</v>
+        <v>3.503655</v>
       </c>
       <c r="I3">
-        <v>0.4048141722543122</v>
+        <v>0.484739710372708</v>
       </c>
       <c r="J3">
-        <v>0.4048141722543122</v>
+        <v>0.484739710372708</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>27.61090666666667</v>
+        <v>27.61090666666666</v>
       </c>
       <c r="N3">
-        <v>82.83272000000001</v>
+        <v>82.83271999999999</v>
       </c>
       <c r="O3">
-        <v>0.4769721651858779</v>
+        <v>0.3690119294748028</v>
       </c>
       <c r="P3">
-        <v>0.4769721651858778</v>
+        <v>0.3690119294748029</v>
       </c>
       <c r="Q3">
-        <v>25.88406534192</v>
+        <v>32.2463637324</v>
       </c>
       <c r="R3">
-        <v>232.95658807728</v>
+        <v>290.2172735916</v>
       </c>
       <c r="S3">
-        <v>0.1930850922380682</v>
+        <v>0.1788747358176901</v>
       </c>
       <c r="T3">
-        <v>0.1930850922380682</v>
+        <v>0.1788747358176901</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.937458</v>
+        <v>1.167885</v>
       </c>
       <c r="H4">
-        <v>2.812374</v>
+        <v>3.503655</v>
       </c>
       <c r="I4">
-        <v>0.4048141722543122</v>
+        <v>0.484739710372708</v>
       </c>
       <c r="J4">
-        <v>0.4048141722543122</v>
+        <v>0.484739710372708</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.723210333333332</v>
+        <v>26.266325</v>
       </c>
       <c r="N4">
-        <v>26.169631</v>
+        <v>78.798975</v>
       </c>
       <c r="O4">
-        <v>0.1506914847198724</v>
+        <v>0.3510419771967738</v>
       </c>
       <c r="P4">
-        <v>0.1506914847198724</v>
+        <v>0.3510419771967739</v>
       </c>
       <c r="Q4">
-        <v>8.177643312666</v>
+        <v>30.676046972625</v>
       </c>
       <c r="R4">
-        <v>73.598789813994</v>
+        <v>276.084422753625</v>
       </c>
       <c r="S4">
-        <v>0.06100204865264848</v>
+        <v>0.1701639863550269</v>
       </c>
       <c r="T4">
-        <v>0.06100204865264846</v>
+        <v>0.1701639863550269</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,14 +708,14 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.937458</v>
+        <v>1.167885</v>
       </c>
       <c r="H5">
-        <v>2.812374</v>
+        <v>3.503655</v>
       </c>
       <c r="I5">
-        <v>0.4048141722543122</v>
+        <v>0.484739710372708</v>
       </c>
       <c r="J5">
-        <v>0.4048141722543122</v>
+        <v>0.484739710372708</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.423514</v>
+        <v>4.658207333333333</v>
       </c>
       <c r="N5">
-        <v>13.270542</v>
+        <v>13.974622</v>
       </c>
       <c r="O5">
-        <v>0.07641520344774541</v>
+        <v>0.06225561864805391</v>
       </c>
       <c r="P5">
-        <v>0.07641520344774538</v>
+        <v>0.06225561864805392</v>
       </c>
       <c r="Q5">
-        <v>4.146858587412</v>
+        <v>5.440250471490001</v>
       </c>
       <c r="R5">
-        <v>37.321727286708</v>
+        <v>48.96225424341</v>
       </c>
       <c r="S5">
-        <v>0.03093395733134392</v>
+        <v>0.03017777055253142</v>
       </c>
       <c r="T5">
-        <v>0.03093395733134391</v>
+        <v>0.03017777055253142</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.9556309999999999</v>
+        <v>0.955631</v>
       </c>
       <c r="H6">
         <v>2.866893</v>
       </c>
       <c r="I6">
-        <v>0.4126616576375268</v>
+        <v>0.3966420445190934</v>
       </c>
       <c r="J6">
-        <v>0.4126616576375267</v>
+        <v>0.3966420445190934</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>17.13024733333333</v>
+        <v>16.28844733333333</v>
       </c>
       <c r="N6">
-        <v>51.390742</v>
+        <v>48.865342</v>
       </c>
       <c r="O6">
-        <v>0.2959211466465043</v>
+        <v>0.2176904746803693</v>
       </c>
       <c r="P6">
-        <v>0.2959211466465043</v>
+        <v>0.2176904746803693</v>
       </c>
       <c r="Q6">
-        <v>16.37019538940066</v>
+        <v>15.56574521360067</v>
       </c>
       <c r="R6">
-        <v>147.331758504606</v>
+        <v>140.091706922406</v>
       </c>
       <c r="S6">
-        <v>0.1221153109051441</v>
+        <v>0.08634519494955362</v>
       </c>
       <c r="T6">
-        <v>0.1221153109051441</v>
+        <v>0.08634519494955362</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.9556309999999999</v>
+        <v>0.955631</v>
       </c>
       <c r="H7">
         <v>2.866893</v>
       </c>
       <c r="I7">
-        <v>0.4126616576375268</v>
+        <v>0.3966420445190934</v>
       </c>
       <c r="J7">
-        <v>0.4126616576375267</v>
+        <v>0.3966420445190934</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,16 +865,16 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>27.61090666666667</v>
+        <v>27.61090666666666</v>
       </c>
       <c r="N7">
-        <v>82.83272000000001</v>
+        <v>82.83271999999999</v>
       </c>
       <c r="O7">
-        <v>0.4769721651858779</v>
+        <v>0.3690119294748028</v>
       </c>
       <c r="P7">
-        <v>0.4769721651858778</v>
+        <v>0.3690119294748029</v>
       </c>
       <c r="Q7">
         <v>26.38583834877333</v>
@@ -883,10 +883,10 @@
         <v>237.47254513896</v>
       </c>
       <c r="S7">
-        <v>0.1968281243325646</v>
+        <v>0.1463656461588213</v>
       </c>
       <c r="T7">
-        <v>0.1968281243325646</v>
+        <v>0.1463656461588213</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.9556309999999999</v>
+        <v>0.955631</v>
       </c>
       <c r="H8">
         <v>2.866893</v>
       </c>
       <c r="I8">
-        <v>0.4126616576375268</v>
+        <v>0.3966420445190934</v>
       </c>
       <c r="J8">
-        <v>0.4126616576375267</v>
+        <v>0.3966420445190934</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.723210333333332</v>
+        <v>26.266325</v>
       </c>
       <c r="N8">
-        <v>26.169631</v>
+        <v>78.798975</v>
       </c>
       <c r="O8">
-        <v>0.1506914847198724</v>
+        <v>0.3510419771967738</v>
       </c>
       <c r="P8">
-        <v>0.1506914847198724</v>
+        <v>0.3510419771967739</v>
       </c>
       <c r="Q8">
-        <v>8.336170214053665</v>
+        <v>25.100914426075</v>
       </c>
       <c r="R8">
-        <v>75.02553192648298</v>
+        <v>225.908229834675</v>
       </c>
       <c r="S8">
-        <v>0.06218459787636258</v>
+        <v>0.1392380075473533</v>
       </c>
       <c r="T8">
-        <v>0.06218459787636256</v>
+        <v>0.1392380075473533</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,14 +956,14 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>25</v>
       </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
       <c r="E9">
         <v>3</v>
       </c>
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.9556309999999999</v>
+        <v>0.955631</v>
       </c>
       <c r="H9">
         <v>2.866893</v>
       </c>
       <c r="I9">
-        <v>0.4126616576375268</v>
+        <v>0.3966420445190934</v>
       </c>
       <c r="J9">
-        <v>0.4126616576375267</v>
+        <v>0.3966420445190934</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.423514</v>
+        <v>4.658207333333333</v>
       </c>
       <c r="N9">
-        <v>13.270542</v>
+        <v>13.974622</v>
       </c>
       <c r="O9">
-        <v>0.07641520344774541</v>
+        <v>0.06225561864805391</v>
       </c>
       <c r="P9">
-        <v>0.07641520344774538</v>
+        <v>0.06225561864805392</v>
       </c>
       <c r="Q9">
-        <v>4.227247107334</v>
+        <v>4.451527332160667</v>
       </c>
       <c r="R9">
-        <v>38.04522396600599</v>
+        <v>40.06374598944601</v>
       </c>
       <c r="S9">
-        <v>0.03153362452345547</v>
+        <v>0.0246931958633651</v>
       </c>
       <c r="T9">
-        <v>0.03153362452345546</v>
+        <v>0.0246931958633651</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,31 +1018,31 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.154397</v>
+        <v>0.2857873333333333</v>
       </c>
       <c r="H10">
-        <v>0.463191</v>
+        <v>0.857362</v>
       </c>
       <c r="I10">
-        <v>0.06667188690431894</v>
+        <v>0.1186182451081986</v>
       </c>
       <c r="J10">
-        <v>0.06667188690431894</v>
+        <v>0.1186182451081986</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.13024733333333</v>
+        <v>16.28844733333333</v>
       </c>
       <c r="N10">
-        <v>51.390742</v>
+        <v>48.865342</v>
       </c>
       <c r="O10">
-        <v>0.2959211466465043</v>
+        <v>0.2176904746803693</v>
       </c>
       <c r="P10">
-        <v>0.2959211466465043</v>
+        <v>0.2176904746803693</v>
       </c>
       <c r="Q10">
-        <v>2.644858797524666</v>
+        <v>4.655031927533778</v>
       </c>
       <c r="R10">
-        <v>23.803729177722</v>
+        <v>41.89528734780399</v>
       </c>
       <c r="S10">
-        <v>0.01972962122181212</v>
+        <v>0.02582206208335616</v>
       </c>
       <c r="T10">
-        <v>0.01972962122181211</v>
+        <v>0.02582206208335616</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,31 +1080,31 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.154397</v>
+        <v>0.2857873333333333</v>
       </c>
       <c r="H11">
-        <v>0.463191</v>
+        <v>0.857362</v>
       </c>
       <c r="I11">
-        <v>0.06667188690431894</v>
+        <v>0.1186182451081986</v>
       </c>
       <c r="J11">
-        <v>0.06667188690431894</v>
+        <v>0.1186182451081986</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>27.61090666666667</v>
+        <v>27.61090666666666</v>
       </c>
       <c r="N11">
-        <v>82.83272000000001</v>
+        <v>82.83271999999999</v>
       </c>
       <c r="O11">
-        <v>0.4769721651858779</v>
+        <v>0.3690119294748028</v>
       </c>
       <c r="P11">
-        <v>0.4769721651858778</v>
+        <v>0.3690119294748029</v>
       </c>
       <c r="Q11">
-        <v>4.263041156613333</v>
+        <v>7.890847387182222</v>
       </c>
       <c r="R11">
-        <v>38.36737040952</v>
+        <v>71.01762648463999</v>
       </c>
       <c r="S11">
-        <v>0.03180063425378098</v>
+        <v>0.04377154749829147</v>
       </c>
       <c r="T11">
-        <v>0.03180063425378098</v>
+        <v>0.04377154749829147</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,31 +1142,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.154397</v>
+        <v>0.2857873333333333</v>
       </c>
       <c r="H12">
-        <v>0.463191</v>
+        <v>0.857362</v>
       </c>
       <c r="I12">
-        <v>0.06667188690431894</v>
+        <v>0.1186182451081986</v>
       </c>
       <c r="J12">
-        <v>0.06667188690431894</v>
+        <v>0.1186182451081986</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.723210333333332</v>
+        <v>26.266325</v>
       </c>
       <c r="N12">
-        <v>26.169631</v>
+        <v>78.798975</v>
       </c>
       <c r="O12">
-        <v>0.1506914847198724</v>
+        <v>0.3510419771967738</v>
       </c>
       <c r="P12">
-        <v>0.1506914847198724</v>
+        <v>0.3510419771967739</v>
       </c>
       <c r="Q12">
-        <v>1.346837505835666</v>
+        <v>7.506582978216667</v>
       </c>
       <c r="R12">
-        <v>12.121537552521</v>
+        <v>67.55924680394999</v>
       </c>
       <c r="S12">
-        <v>0.01004688562668724</v>
+        <v>0.0416399832943936</v>
       </c>
       <c r="T12">
-        <v>0.01004688562668724</v>
+        <v>0.0416399832943936</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,31 +1204,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.154397</v>
+        <v>0.2857873333333333</v>
       </c>
       <c r="H13">
-        <v>0.463191</v>
+        <v>0.857362</v>
       </c>
       <c r="I13">
-        <v>0.06667188690431894</v>
+        <v>0.1186182451081986</v>
       </c>
       <c r="J13">
-        <v>0.06667188690431894</v>
+        <v>0.1186182451081986</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,276 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.423514</v>
+        <v>4.658207333333333</v>
       </c>
       <c r="N13">
-        <v>13.270542</v>
+        <v>13.974622</v>
       </c>
       <c r="O13">
-        <v>0.07641520344774541</v>
+        <v>0.06225561864805391</v>
       </c>
       <c r="P13">
-        <v>0.07641520344774538</v>
+        <v>0.06225561864805392</v>
       </c>
       <c r="Q13">
-        <v>0.6829772910579999</v>
+        <v>1.331256651907111</v>
       </c>
       <c r="R13">
-        <v>6.146795619521999</v>
+        <v>11.981309867164</v>
       </c>
       <c r="S13">
-        <v>0.005094745802038604</v>
+        <v>0.007384652232157401</v>
       </c>
       <c r="T13">
-        <v>0.005094745802038603</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G14">
-        <v>0.2682876666666666</v>
-      </c>
-      <c r="H14">
-        <v>0.804863</v>
-      </c>
-      <c r="I14">
-        <v>0.1158522832038422</v>
-      </c>
-      <c r="J14">
-        <v>0.1158522832038422</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>17.13024733333333</v>
-      </c>
-      <c r="N14">
-        <v>51.390742</v>
-      </c>
-      <c r="O14">
-        <v>0.2959211466465043</v>
-      </c>
-      <c r="P14">
-        <v>0.2959211466465043</v>
-      </c>
-      <c r="Q14">
-        <v>4.595834086482888</v>
-      </c>
-      <c r="R14">
-        <v>41.362506778346</v>
-      </c>
-      <c r="S14">
-        <v>0.03428314048729653</v>
-      </c>
-      <c r="T14">
-        <v>0.03428314048729653</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G15">
-        <v>0.2682876666666666</v>
-      </c>
-      <c r="H15">
-        <v>0.804863</v>
-      </c>
-      <c r="I15">
-        <v>0.1158522832038422</v>
-      </c>
-      <c r="J15">
-        <v>0.1158522832038422</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>27.61090666666667</v>
-      </c>
-      <c r="N15">
-        <v>82.83272000000001</v>
-      </c>
-      <c r="O15">
-        <v>0.4769721651858779</v>
-      </c>
-      <c r="P15">
-        <v>0.4769721651858778</v>
-      </c>
-      <c r="Q15">
-        <v>7.407665724151111</v>
-      </c>
-      <c r="R15">
-        <v>66.66899151736001</v>
-      </c>
-      <c r="S15">
-        <v>0.05525831436146412</v>
-      </c>
-      <c r="T15">
-        <v>0.05525831436146411</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G16">
-        <v>0.2682876666666666</v>
-      </c>
-      <c r="H16">
-        <v>0.804863</v>
-      </c>
-      <c r="I16">
-        <v>0.1158522832038422</v>
-      </c>
-      <c r="J16">
-        <v>0.1158522832038422</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>8.723210333333332</v>
-      </c>
-      <c r="N16">
-        <v>26.169631</v>
-      </c>
-      <c r="O16">
-        <v>0.1506914847198724</v>
-      </c>
-      <c r="P16">
-        <v>0.1506914847198724</v>
-      </c>
-      <c r="Q16">
-        <v>2.340329746172555</v>
-      </c>
-      <c r="R16">
-        <v>21.062967715553</v>
-      </c>
-      <c r="S16">
-        <v>0.01745795256417411</v>
-      </c>
-      <c r="T16">
-        <v>0.01745795256417411</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G17">
-        <v>0.2682876666666666</v>
-      </c>
-      <c r="H17">
-        <v>0.804863</v>
-      </c>
-      <c r="I17">
-        <v>0.1158522832038422</v>
-      </c>
-      <c r="J17">
-        <v>0.1158522832038422</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>4.423514</v>
-      </c>
-      <c r="N17">
-        <v>13.270542</v>
-      </c>
-      <c r="O17">
-        <v>0.07641520344774541</v>
-      </c>
-      <c r="P17">
-        <v>0.07641520344774538</v>
-      </c>
-      <c r="Q17">
-        <v>1.186774249527333</v>
-      </c>
-      <c r="R17">
-        <v>10.680968245746</v>
-      </c>
-      <c r="S17">
-        <v>0.008852875790907419</v>
-      </c>
-      <c r="T17">
-        <v>0.008852875790907416</v>
+        <v>0.007384652232157401</v>
       </c>
     </row>
   </sheetData>
